--- a/Excel_file/Price_From_Mar_01_2022_To_Mar_31_2022.xlsx
+++ b/Excel_file/Price_From_Mar_01_2022_To_Mar_31_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Price" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>909</v>
+        <v>1339</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>2398.843</v>
+        <v>3657.453</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1140</v>
+        <v>908</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>3074.98</v>
+        <v>2395.916</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1339</v>
+        <v>1068</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>3657.453</v>
+        <v>2864.236</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>953</v>
+        <v>806</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>2527.631</v>
+        <v>2097.362</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1027</v>
+        <v>953</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>2744.229</v>
+        <v>2527.631</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>986</v>
+        <v>1121</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>2624.222</v>
+        <v>3019.367</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1227</v>
+        <v>1241</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>3329.629</v>
+        <v>3370.607</v>
       </c>
     </row>
   </sheetData>
